--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H358"/>
+  <dimension ref="A1:H363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10520,7 +10520,9 @@
           <t>2024-11-03 22:05:36+00:00</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" t="n">
+        <v>459.5077777777778</v>
+      </c>
       <c r="C358" t="n">
         <v>414.3677777777777</v>
       </c>
@@ -10537,6 +10539,156 @@
         <v>416.2877777777778</v>
       </c>
       <c r="H358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>452.2355555555556</v>
+      </c>
+      <c r="C359" t="n">
+        <v>416.4055555555556</v>
+      </c>
+      <c r="D359" t="n">
+        <v>410.4090909090909</v>
+      </c>
+      <c r="E359" t="n">
+        <v>409.9866666666667</v>
+      </c>
+      <c r="F359" t="n">
+        <v>403.9866666666667</v>
+      </c>
+      <c r="G359" t="n">
+        <v>417.7555555555555</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>440.2555555555555</v>
+      </c>
+      <c r="C360" t="n">
+        <v>409.6955555555555</v>
+      </c>
+      <c r="D360" t="n">
+        <v>409.360909090909</v>
+      </c>
+      <c r="E360" t="n">
+        <v>407.0066666666667</v>
+      </c>
+      <c r="F360" t="n">
+        <v>404.8666666666667</v>
+      </c>
+      <c r="G360" t="n">
+        <v>411.5755555555555</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>451.2655555555555</v>
+      </c>
+      <c r="C361" t="n">
+        <v>420.2155555555556</v>
+      </c>
+      <c r="D361" t="n">
+        <v>419.9981818181818</v>
+      </c>
+      <c r="E361" t="n">
+        <v>417.3366666666667</v>
+      </c>
+      <c r="F361" t="n">
+        <v>409.7466666666666</v>
+      </c>
+      <c r="G361" t="n">
+        <v>422.1955555555555</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>430.5277777777778</v>
+      </c>
+      <c r="C362" t="n">
+        <v>410.6077777777778</v>
+      </c>
+      <c r="D362" t="n">
+        <v>410.0418181818182</v>
+      </c>
+      <c r="E362" t="n">
+        <v>408.0133333333333</v>
+      </c>
+      <c r="F362" t="n">
+        <v>407.9533333333333</v>
+      </c>
+      <c r="G362" t="n">
+        <v>414.9977777777778</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>414.1988888888889</v>
+      </c>
+      <c r="C363" t="n">
+        <v>416.0688888888889</v>
+      </c>
+      <c r="D363" t="n">
+        <v>412.1263636363637</v>
+      </c>
+      <c r="E363" t="n">
+        <v>409.6066666666667</v>
+      </c>
+      <c r="F363" t="n">
+        <v>407.7566666666667</v>
+      </c>
+      <c r="G363" t="n">
+        <v>410.2388888888889</v>
+      </c>
+      <c r="H363" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10553,7 +10705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14391,6 +14543,56 @@
       </c>
       <c r="B383" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -14553,28 +14755,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.01946993092542493</v>
+        <v>0.06404501369660276</v>
       </c>
       <c r="J2" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K2" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L2" t="n">
-        <v>4.757521972476031e-05</v>
+        <v>0.0005279996157546707</v>
       </c>
       <c r="M2" t="n">
-        <v>17.17451916327416</v>
+        <v>17.1488647211125</v>
       </c>
       <c r="N2" t="n">
-        <v>412.3806862088974</v>
+        <v>411.0646222246669</v>
       </c>
       <c r="O2" t="n">
-        <v>20.30715849667051</v>
+        <v>20.27472865970509</v>
       </c>
       <c r="P2" t="n">
-        <v>429.7469852224796</v>
+        <v>429.3173759895637</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14630,28 +14832,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04392619301541505</v>
+        <v>0.06526487546219745</v>
       </c>
       <c r="J3" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001166935642777256</v>
+        <v>0.002635215769088983</v>
       </c>
       <c r="M3" t="n">
-        <v>7.113804828185747</v>
+        <v>7.095312601990014</v>
       </c>
       <c r="N3" t="n">
-        <v>84.00520434897665</v>
+        <v>83.52028457223004</v>
       </c>
       <c r="O3" t="n">
-        <v>9.165435306027568</v>
+        <v>9.138943296258601</v>
       </c>
       <c r="P3" t="n">
-        <v>407.0410170135753</v>
+        <v>406.8308995283459</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14707,28 +14909,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05355191156946014</v>
+        <v>0.06818991508481491</v>
       </c>
       <c r="J4" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001830762344977255</v>
+        <v>0.003043636027341812</v>
       </c>
       <c r="M4" t="n">
-        <v>6.617722923560217</v>
+        <v>6.585921860078967</v>
       </c>
       <c r="N4" t="n">
-        <v>78.77635547049793</v>
+        <v>78.07409984883564</v>
       </c>
       <c r="O4" t="n">
-        <v>8.875604512961241</v>
+        <v>8.835954948325373</v>
       </c>
       <c r="P4" t="n">
-        <v>406.462917520702</v>
+        <v>406.3170309291596</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14784,28 +14986,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02886180497643357</v>
+        <v>-0.01013997971353951</v>
       </c>
       <c r="J5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004975891692465817</v>
+        <v>6.288830911005405e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.890198430845126</v>
+        <v>6.872388712427673</v>
       </c>
       <c r="N5" t="n">
-        <v>85.15773514015731</v>
+        <v>84.58721213085116</v>
       </c>
       <c r="O5" t="n">
-        <v>9.228094881401974</v>
+        <v>9.197130646612081</v>
       </c>
       <c r="P5" t="n">
-        <v>405.0204597771065</v>
+        <v>404.8349416418678</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14861,28 +15063,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1063421748476908</v>
+        <v>-0.09222439508790488</v>
       </c>
       <c r="J6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K6" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006559129841587352</v>
+        <v>0.005082596357309566</v>
       </c>
       <c r="M6" t="n">
-        <v>7.012836164231992</v>
+        <v>6.964176883409134</v>
       </c>
       <c r="N6" t="n">
-        <v>88.14158588849197</v>
+        <v>87.14722382964082</v>
       </c>
       <c r="O6" t="n">
-        <v>9.388375039829416</v>
+        <v>9.335267742793498</v>
       </c>
       <c r="P6" t="n">
-        <v>404.9594300216366</v>
+        <v>404.8212141610517</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14938,28 +15140,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09531342348997804</v>
+        <v>-0.08334322843789727</v>
       </c>
       <c r="J7" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K7" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004286117042738513</v>
+        <v>0.003378891038657739</v>
       </c>
       <c r="M7" t="n">
-        <v>7.987363311298016</v>
+        <v>7.92669815950288</v>
       </c>
       <c r="N7" t="n">
-        <v>104.5884623376666</v>
+        <v>103.4174375498591</v>
       </c>
       <c r="O7" t="n">
-        <v>10.22685006918878</v>
+        <v>10.16943644209743</v>
       </c>
       <c r="P7" t="n">
-        <v>414.06675032762</v>
+        <v>413.9473699094786</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14996,7 +15198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H358"/>
+  <dimension ref="A1:H363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28716,7 +28918,11 @@
           <t>2024-11-03 22:05:36+00:00</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.76415201753986,175.14466195540447</t>
+        </is>
+      </c>
       <c r="C358" t="inlineStr">
         <is>
           <t>-36.76458469523236,175.14541999239006</t>
@@ -28743,6 +28949,216 @@
         </is>
       </c>
       <c r="H358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.76421754003424,175.14466090452794</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.76456654606987,175.1454165289623</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.764444980144134,175.14614621490063</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.76414313533747,175.14685514052996</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-36.76379169948016,175.14758749206416</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-36.76325548166736,175.14818543331404</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.76432547945756,175.14465917335355</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.76462630767884,175.1454279333532</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.76445363593685,175.14615091214336</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.76416568395484,175.14687326236987</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-36.76378543527566,175.14758144957437</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-36.76329862502309,175.14822919272225</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-36.764226279703806,175.14466076435764</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-36.764532612875115,175.14541005345268</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-36.76436579426909,175.14610324312466</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-36.76408752044541,175.14681044409195</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-36.763750697408035,175.14754794124002</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-36.76322448545895,175.14815399454645</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-36.76441312642824,175.14465776763942</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-36.76461818310852,175.14542638292897</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-36.76444801304986,175.14614786076874</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-36.76415806686073,175.1468671406733</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-36.763763463101064,175.14756025509158</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-36.763274734062406,175.14820496060946</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-36.764560249199086,175.1446554080346</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-36.764569544541125,175.14541710116424</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-36.7644307990574,175.14613851924688</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-36.76414601066468,175.14685745136802</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-36.76376486305615,175.1475616054956</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-36.7633079564585,175.14823865741195</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -14606,7 +14606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14697,35 +14697,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14778,27 +14783,28 @@
       <c r="P2" t="n">
         <v>429.3173759895637</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.14459555594647 -36.768292166996076, 175.14472841536596 -36.76000834294725)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.1445955559465</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.76829216699608</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.144728415366</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.76000834294725</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.1446619856562</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.76415025497167</v>
       </c>
     </row>
@@ -14855,27 +14861,28 @@
       <c r="P3" t="n">
         <v>406.8308995283459</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.1461242943557 -36.76827519549791, 175.14456163180967 -36.76008638554916)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.1461242943557</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.76827519549791</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.1445616318097</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.76008638554916</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.1453429630827</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.76418079052353</v>
       </c>
     </row>
@@ -14932,27 +14939,28 @@
       <c r="P4" t="n">
         <v>406.3170309291596</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.14798547498552 -36.76783408439462, 175.1438644036373 -36.76023993115124)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.1479854749855</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.76783408439462</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.1438644036373</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.76023993115124</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.1459249393114</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.76403700777293</v>
       </c>
     </row>
@@ -15009,27 +15017,28 @@
       <c r="P5" t="n">
         <v>404.8349416418678</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.1493484343171 -36.76724533105793, 175.14375501003147 -36.760285464396404)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.1493484343171</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.76724533105793</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.1437550100315</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.7602854643964</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.1465517221743</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.76376539772717</v>
       </c>
     </row>
@@ -15086,27 +15095,28 @@
       <c r="P6" t="n">
         <v>404.8212141610517</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.15036155760768 -36.766667407450306, 175.14404503047072 -36.760119019720115)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.1503615576077</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.76666740745031</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.1440450304707</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.76011901972011</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.1472032940392</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.76339321358521</v>
       </c>
     </row>
@@ -15163,27 +15173,28 @@
       <c r="P7" t="n">
         <v>413.9473699094786</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.15114359255713 -36.76617184513378, 175.14462962822878 -36.75974951266995)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.1511435925571</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.76617184513378</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.1446296282288</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.75974951266995</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.147886610393</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.76296067890186</v>
       </c>
     </row>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H363"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10689,6 +10689,94 @@
         <v>410.2388888888889</v>
       </c>
       <c r="H363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>406.6933333333333</v>
+      </c>
+      <c r="C364" t="n">
+        <v>408.4633333333333</v>
+      </c>
+      <c r="D364" t="n">
+        <v>411.4863636363637</v>
+      </c>
+      <c r="E364" t="n">
+        <v>407.78</v>
+      </c>
+      <c r="F364" t="n">
+        <v>407.71</v>
+      </c>
+      <c r="G364" t="n">
+        <v>409.7733333333333</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>429.2055555555555</v>
+      </c>
+      <c r="C365" t="n">
+        <v>422.4855555555556</v>
+      </c>
+      <c r="D365" t="n">
+        <v>425.1036363636364</v>
+      </c>
+      <c r="E365" t="n">
+        <v>422.6366666666667</v>
+      </c>
+      <c r="F365" t="n">
+        <v>418.3866666666667</v>
+      </c>
+      <c r="G365" t="n">
+        <v>429.3555555555556</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="n">
+        <v>410.54</v>
+      </c>
+      <c r="D366" t="n">
+        <v>410.6963636363636</v>
+      </c>
+      <c r="E366" t="n">
+        <v>408.06</v>
+      </c>
+      <c r="F366" t="n">
+        <v>405.87</v>
+      </c>
+      <c r="G366" t="n">
+        <v>410.58</v>
+      </c>
+      <c r="H366" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10705,7 +10793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14593,6 +14681,36 @@
       </c>
       <c r="B388" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -14760,28 +14878,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.06404501369660276</v>
+        <v>0.0465652143268577</v>
       </c>
       <c r="J2" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005279996157546707</v>
+        <v>0.0002818110805448137</v>
       </c>
       <c r="M2" t="n">
-        <v>17.1488647211125</v>
+        <v>17.1214764397509</v>
       </c>
       <c r="N2" t="n">
-        <v>411.0646222246669</v>
+        <v>410.2426049267794</v>
       </c>
       <c r="O2" t="n">
-        <v>20.27472865970509</v>
+        <v>20.25444654703701</v>
       </c>
       <c r="P2" t="n">
-        <v>429.3173759895637</v>
+        <v>429.4881688465318</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14838,28 +14956,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06526487546219745</v>
+        <v>0.07575260585649103</v>
       </c>
       <c r="J3" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002635215769088983</v>
+        <v>0.003592861803834779</v>
       </c>
       <c r="M3" t="n">
-        <v>7.095312601990014</v>
+        <v>7.074354320476776</v>
       </c>
       <c r="N3" t="n">
-        <v>83.52028457223004</v>
+        <v>83.34545659723607</v>
       </c>
       <c r="O3" t="n">
-        <v>9.138943296258601</v>
+        <v>9.129373286115321</v>
       </c>
       <c r="P3" t="n">
-        <v>406.8308995283459</v>
+        <v>406.7265929509546</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14916,28 +15034,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06818991508481491</v>
+        <v>0.08283078365012565</v>
       </c>
       <c r="J4" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003043636027341812</v>
+        <v>0.004517329642581003</v>
       </c>
       <c r="M4" t="n">
-        <v>6.585921860078967</v>
+        <v>6.596700087571098</v>
       </c>
       <c r="N4" t="n">
-        <v>78.07409984883564</v>
+        <v>78.29900719087161</v>
       </c>
       <c r="O4" t="n">
-        <v>8.835954948325373</v>
+        <v>8.848672623104077</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3170309291596</v>
+        <v>406.1697824356062</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14994,28 +15112,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01013997971353951</v>
+        <v>0.004919250856655464</v>
       </c>
       <c r="J5" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>6.288830911005405e-05</v>
+        <v>1.489868714632525e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.872388712427673</v>
+        <v>6.881512617230826</v>
       </c>
       <c r="N5" t="n">
-        <v>84.58721213085116</v>
+        <v>84.86281791753481</v>
       </c>
       <c r="O5" t="n">
-        <v>9.197130646612081</v>
+        <v>9.212101710116688</v>
       </c>
       <c r="P5" t="n">
-        <v>404.8349416418678</v>
+        <v>404.6842572334813</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15072,28 +15190,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09222439508790488</v>
+        <v>-0.07728757745847754</v>
       </c>
       <c r="J6" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005082596357309566</v>
+        <v>0.003607841825323921</v>
       </c>
       <c r="M6" t="n">
-        <v>6.964176883409134</v>
+        <v>6.96348259527526</v>
       </c>
       <c r="N6" t="n">
-        <v>87.14722382964082</v>
+        <v>87.22347519240475</v>
       </c>
       <c r="O6" t="n">
-        <v>9.335267742793498</v>
+        <v>9.339350897808945</v>
       </c>
       <c r="P6" t="n">
-        <v>404.8212141610517</v>
+        <v>404.6737423500462</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15150,28 +15268,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08334322843789727</v>
+        <v>-0.0741842127595331</v>
       </c>
       <c r="J7" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K7" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003378891038657739</v>
+        <v>0.00270803650974516</v>
       </c>
       <c r="M7" t="n">
-        <v>7.92669815950288</v>
+        <v>7.91698254289202</v>
       </c>
       <c r="N7" t="n">
-        <v>103.4174375498591</v>
+        <v>103.419359232554</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16943644209743</v>
+        <v>10.16953092490278</v>
       </c>
       <c r="P7" t="n">
-        <v>413.9473699094786</v>
+        <v>413.8550388051301</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15209,7 +15327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H363"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29175,6 +29293,128 @@
         </is>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-36.76462787401548,175.14465432344656</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-36.76463728228107,175.14543002765404</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-36.76443608412103,175.14614138729326</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-36.764159832412375,175.14686855960946</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-36.76376519524889,175.14756192593052</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-36.763311206559244,175.14824195392538</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-36.76442503960861,175.1446575765716</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-36.76451239545952,175.1454061953437</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-36.76432363386354,175.14608036399127</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-36.76404741717788,175.1467782140482</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-36.7636891942721,175.14748861508363</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-36.763174500562734,175.1481032960471</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-36.76461878676112,175.14542649812492</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-36.76444260787135,175.14614492753853</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-36.76415771375041,175.14686685688605</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-36.76377829313296,175.14757456022173</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-36.763305575119695,175.14823624206696</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H366"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10777,6 +10777,36 @@
         <v>410.58</v>
       </c>
       <c r="H366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>454.3566666666667</v>
+      </c>
+      <c r="C367" t="n">
+        <v>417.8666666666667</v>
+      </c>
+      <c r="D367" t="n">
+        <v>413.3036363636364</v>
+      </c>
+      <c r="E367" t="n">
+        <v>414.92</v>
+      </c>
+      <c r="F367" t="n">
+        <v>408.07</v>
+      </c>
+      <c r="G367" t="n">
+        <v>421.3266666666667</v>
+      </c>
+      <c r="H367" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10793,7 +10823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B391"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14711,6 +14741,16 @@
       </c>
       <c r="B391" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -14878,28 +14918,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.0465652143268577</v>
+        <v>0.06265327030584841</v>
       </c>
       <c r="J2" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002818110805448137</v>
+        <v>0.0005113839332753223</v>
       </c>
       <c r="M2" t="n">
-        <v>17.1214764397509</v>
+        <v>17.14202283011097</v>
       </c>
       <c r="N2" t="n">
-        <v>410.2426049267794</v>
+        <v>410.7393572837811</v>
       </c>
       <c r="O2" t="n">
-        <v>20.25444654703701</v>
+        <v>20.26670563470494</v>
       </c>
       <c r="P2" t="n">
-        <v>429.4881688465318</v>
+        <v>429.3293081772276</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14956,28 +14996,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07575260585649103</v>
+        <v>0.08179822633819178</v>
       </c>
       <c r="J3" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003592861803834779</v>
+        <v>0.004201838372092204</v>
       </c>
       <c r="M3" t="n">
-        <v>7.074354320476776</v>
+        <v>7.0789389792313</v>
       </c>
       <c r="N3" t="n">
-        <v>83.34545659723607</v>
+        <v>83.34730719869671</v>
       </c>
       <c r="O3" t="n">
-        <v>9.129373286115321</v>
+        <v>9.129474639797008</v>
       </c>
       <c r="P3" t="n">
-        <v>406.7265929509546</v>
+        <v>406.6660461192254</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15034,28 +15074,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08283078365012565</v>
+        <v>0.08602289493762763</v>
       </c>
       <c r="J4" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004517329642581003</v>
+        <v>0.004897811479164904</v>
       </c>
       <c r="M4" t="n">
-        <v>6.596700087571098</v>
+        <v>6.592167380679689</v>
       </c>
       <c r="N4" t="n">
-        <v>78.29900719087161</v>
+        <v>78.12912716471679</v>
       </c>
       <c r="O4" t="n">
-        <v>8.848672623104077</v>
+        <v>8.8390682294412</v>
       </c>
       <c r="P4" t="n">
-        <v>406.1697824356062</v>
+        <v>406.1374372051995</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15112,28 +15152,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004919250856655464</v>
+        <v>0.01110492077404549</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>1.489868714632525e-05</v>
+        <v>7.612577214999305e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.881512617230826</v>
+        <v>6.89083361773071</v>
       </c>
       <c r="N5" t="n">
-        <v>84.86281791753481</v>
+        <v>84.91339928079312</v>
       </c>
       <c r="O5" t="n">
-        <v>9.212101710116688</v>
+        <v>9.214846677009504</v>
       </c>
       <c r="P5" t="n">
-        <v>404.6842572334813</v>
+        <v>404.6219021349658</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15190,28 +15230,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07728757745847754</v>
+        <v>-0.07399930068854292</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003607841825323921</v>
+        <v>0.003326478891862106</v>
       </c>
       <c r="M6" t="n">
-        <v>6.96348259527526</v>
+        <v>6.956160607991911</v>
       </c>
       <c r="N6" t="n">
-        <v>87.22347519240475</v>
+        <v>87.04236807035134</v>
       </c>
       <c r="O6" t="n">
-        <v>9.339350897808945</v>
+        <v>9.32964994361264</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6737423500462</v>
+        <v>404.6410266951722</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15268,28 +15308,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0741842127595331</v>
+        <v>-0.06812142283685056</v>
       </c>
       <c r="J7" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00270803650974516</v>
+        <v>0.002293975719604324</v>
       </c>
       <c r="M7" t="n">
-        <v>7.91698254289202</v>
+        <v>7.921371364316712</v>
       </c>
       <c r="N7" t="n">
-        <v>103.419359232554</v>
+        <v>103.366838343083</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16953092490278</v>
+        <v>10.16694832991115</v>
       </c>
       <c r="P7" t="n">
-        <v>413.8550388051301</v>
+        <v>413.7934956586197</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15327,7 +15367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H366"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29415,6 +29455,48 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-36.76419842888965,175.1446612110402</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-36.76455353290254,175.1454140456442</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-36.76442107724267,175.1461332435092</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-36.764105806523155,175.14682514019242</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-36.76376263261922,175.14755945400444</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-36.76323055128423,175.14816014697593</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10809,6 +10809,34 @@
       <c r="H367" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="n">
+        <v>408.8344444444445</v>
+      </c>
+      <c r="D368" t="n">
+        <v>400.64</v>
+      </c>
+      <c r="E368" t="n">
+        <v>399.8233333333333</v>
+      </c>
+      <c r="F368" t="n">
+        <v>404.0433333333333</v>
+      </c>
+      <c r="G368" t="n">
+        <v>408.2144444444445</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14751,6 +14779,16 @@
       </c>
       <c r="B392" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -14921,7 +14959,7 @@
         <v>0.06265327030584841</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
         <v>291</v>
@@ -14996,28 +15034,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08179822633819178</v>
+        <v>0.0818477993667026</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004201838372092204</v>
+        <v>0.004236037556927363</v>
       </c>
       <c r="M3" t="n">
-        <v>7.0789389792313</v>
+        <v>7.055955555735593</v>
       </c>
       <c r="N3" t="n">
-        <v>83.34730719869671</v>
+        <v>83.07405598430977</v>
       </c>
       <c r="O3" t="n">
-        <v>9.129474639797008</v>
+        <v>9.114497023111575</v>
       </c>
       <c r="P3" t="n">
-        <v>406.6660461192254</v>
+        <v>406.6655481002009</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15074,28 +15112,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08602289493762763</v>
+        <v>0.08114522099849136</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004897811479164904</v>
+        <v>0.004378963272778313</v>
       </c>
       <c r="M4" t="n">
-        <v>6.592167380679689</v>
+        <v>6.594898113170582</v>
       </c>
       <c r="N4" t="n">
-        <v>78.12912716471679</v>
+        <v>78.06739043581891</v>
       </c>
       <c r="O4" t="n">
-        <v>8.8390682294412</v>
+        <v>8.835575274752568</v>
       </c>
       <c r="P4" t="n">
-        <v>406.1374372051995</v>
+        <v>406.1870157625131</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15152,28 +15190,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01110492077404549</v>
+        <v>0.008005091958745015</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>7.612577214999305e-05</v>
+        <v>3.977627735018974e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.89083361773071</v>
+        <v>6.885358623703106</v>
       </c>
       <c r="N5" t="n">
-        <v>84.91339928079312</v>
+        <v>84.73086480817679</v>
       </c>
       <c r="O5" t="n">
-        <v>9.214846677009504</v>
+        <v>9.20493698013065</v>
       </c>
       <c r="P5" t="n">
-        <v>404.6219021349658</v>
+        <v>404.6532484445084</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15230,28 +15268,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07399930068854292</v>
+        <v>-0.07320849207552925</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003326478891862106</v>
+        <v>0.003276924727072639</v>
       </c>
       <c r="M6" t="n">
-        <v>6.956160607991911</v>
+        <v>6.938152397635488</v>
       </c>
       <c r="N6" t="n">
-        <v>87.04236807035134</v>
+        <v>86.77965942351335</v>
       </c>
       <c r="O6" t="n">
-        <v>9.32964994361264</v>
+        <v>9.315560070307816</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6410266951722</v>
+        <v>404.6331340845056</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15308,28 +15346,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06812142283685056</v>
+        <v>-0.07059588419361702</v>
       </c>
       <c r="J7" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002293975719604324</v>
+        <v>0.002478959960778404</v>
       </c>
       <c r="M7" t="n">
-        <v>7.921371364316712</v>
+        <v>7.908442776388608</v>
       </c>
       <c r="N7" t="n">
-        <v>103.366838343083</v>
+        <v>103.0867261623678</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16694832991115</v>
+        <v>10.15316335741565</v>
       </c>
       <c r="P7" t="n">
-        <v>413.7934956586197</v>
+        <v>413.8186891980766</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15367,7 +15405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15964,7 +16002,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-36.76331047741971,175.14824121437343</t>
+          <t>-36.763310477419715,175.14824121437343</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -25028,7 +25066,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-36.76328519023679,175.1482155660907</t>
+          <t>-36.763285190236786,175.1482155660907</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -25933,7 +25971,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-36.764274943545246,175.14465998386783</t>
+          <t>-36.76427494354524,175.14465998386783</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -29497,6 +29535,44 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-36.764633977035686,175.14542939690872</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-36.764525652423536,175.14618999340837</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-36.76422003771182,175.14691694537282</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-36.76379129610337,175.14758710296442</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-36.76332208935408,175.14825299213348</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10835,6 +10835,60 @@
         <v>408.2144444444445</v>
       </c>
       <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>459.71</v>
+      </c>
+      <c r="C369" t="n">
+        <v>402.84</v>
+      </c>
+      <c r="D369" t="n">
+        <v>404.9072727272728</v>
+      </c>
+      <c r="E369" t="n">
+        <v>407.94</v>
+      </c>
+      <c r="F369" t="n">
+        <v>406.54</v>
+      </c>
+      <c r="G369" t="n">
+        <v>411.34</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="F370" t="n">
+        <v>372.14</v>
+      </c>
+      <c r="G370" t="n">
+        <v>384.1966666666667</v>
+      </c>
+      <c r="H370" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10851,7 +10905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14789,6 +14843,26 @@
       </c>
       <c r="B393" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-1.05</v>
       </c>
     </row>
   </sheetData>
@@ -14956,28 +15030,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.06265327030584841</v>
+        <v>0.08215584452865624</v>
       </c>
       <c r="J2" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005113839332753223</v>
+        <v>0.0008793512151498151</v>
       </c>
       <c r="M2" t="n">
-        <v>17.14202283011097</v>
+        <v>17.17844243488675</v>
       </c>
       <c r="N2" t="n">
-        <v>410.7393572837811</v>
+        <v>412.1384759437123</v>
       </c>
       <c r="O2" t="n">
-        <v>20.26670563470494</v>
+        <v>20.30119395364992</v>
       </c>
       <c r="P2" t="n">
-        <v>429.3293081772276</v>
+        <v>429.1359211749862</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15034,28 +15108,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0818477993667026</v>
+        <v>0.07800627291854588</v>
       </c>
       <c r="J3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004236037556927363</v>
+        <v>0.003870358612101277</v>
       </c>
       <c r="M3" t="n">
-        <v>7.055955555735593</v>
+        <v>7.053772176260275</v>
       </c>
       <c r="N3" t="n">
-        <v>83.07405598430977</v>
+        <v>82.91599395058221</v>
       </c>
       <c r="O3" t="n">
-        <v>9.114497023111575</v>
+        <v>9.105821981050486</v>
       </c>
       <c r="P3" t="n">
-        <v>406.6655481002009</v>
+        <v>406.7041807242437</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15112,28 +15186,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08114522099849136</v>
+        <v>0.0790341034587288</v>
       </c>
       <c r="J4" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004378963272778313</v>
+        <v>0.004180435269413918</v>
       </c>
       <c r="M4" t="n">
-        <v>6.594898113170582</v>
+        <v>6.584512427311521</v>
       </c>
       <c r="N4" t="n">
-        <v>78.06739043581891</v>
+        <v>77.85566730363793</v>
       </c>
       <c r="O4" t="n">
-        <v>8.835575274752568</v>
+        <v>8.823585852907986</v>
       </c>
       <c r="P4" t="n">
-        <v>406.1870157625131</v>
+        <v>406.2084961872665</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15190,28 +15264,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008005091958745015</v>
+        <v>0.001463707010266938</v>
       </c>
       <c r="J5" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>3.977627735018974e-05</v>
+        <v>1.336939362439615e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>6.885358623703106</v>
+        <v>6.896269163086989</v>
       </c>
       <c r="N5" t="n">
-        <v>84.73086480817679</v>
+        <v>84.83413635808348</v>
       </c>
       <c r="O5" t="n">
-        <v>9.20493698013065</v>
+        <v>9.210544845886343</v>
       </c>
       <c r="P5" t="n">
-        <v>404.6532484445084</v>
+        <v>404.7195552849817</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15268,28 +15342,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07320849207552925</v>
+        <v>-0.08935511807025182</v>
       </c>
       <c r="J6" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003276924727072639</v>
+        <v>0.004777283624402884</v>
       </c>
       <c r="M6" t="n">
-        <v>6.938152397635488</v>
+        <v>7.014365958606501</v>
       </c>
       <c r="N6" t="n">
-        <v>86.77965942351335</v>
+        <v>89.13859868662126</v>
       </c>
       <c r="O6" t="n">
-        <v>9.315560070307816</v>
+        <v>9.441323990130901</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6331340845056</v>
+        <v>404.7946461373775</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15346,28 +15420,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07059588419361702</v>
+        <v>-0.08868317026318141</v>
       </c>
       <c r="J7" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K7" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002478959960778404</v>
+        <v>0.003868768745415085</v>
       </c>
       <c r="M7" t="n">
-        <v>7.908442776388608</v>
+        <v>7.947065244604048</v>
       </c>
       <c r="N7" t="n">
-        <v>103.0867261623678</v>
+        <v>104.8418626156378</v>
       </c>
       <c r="O7" t="n">
-        <v>10.15316335741565</v>
+        <v>10.239231544195</v>
       </c>
       <c r="P7" t="n">
-        <v>413.8186891980766</v>
+        <v>414.0032081140341</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15405,7 +15479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29573,6 +29647,78 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-36.76415019552395,175.14466198462674</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-36.76468736565425,175.14543958515262</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-36.76449041366932,175.14617087034478</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-36.76415862174841,175.14686758662467</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-36.76377352379492,175.14756995969125</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-36.76330026946563,175.14823086064743</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-36.764287557411066,175.14697120968256</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-36.764018397012485,175.147806166776</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-36.76348976026662,175.14842305803816</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10891,6 +10891,94 @@
       <c r="H370" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>433.67</v>
+      </c>
+      <c r="C371" t="n">
+        <v>401.6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>405.4245454545455</v>
+      </c>
+      <c r="E371" t="n">
+        <v>401.14</v>
+      </c>
+      <c r="F371" t="n">
+        <v>399.45</v>
+      </c>
+      <c r="G371" t="n">
+        <v>401.93</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>452.8311111111111</v>
+      </c>
+      <c r="C372" t="n">
+        <v>409.8311111111111</v>
+      </c>
+      <c r="D372" t="n">
+        <v>409.6409090909091</v>
+      </c>
+      <c r="E372" t="n">
+        <v>409.9333333333333</v>
+      </c>
+      <c r="F372" t="n">
+        <v>402.0233333333333</v>
+      </c>
+      <c r="G372" t="n">
+        <v>408.3211111111111</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="n">
+        <v>396.78</v>
+      </c>
+      <c r="D373" t="n">
+        <v>397.1963636363636</v>
+      </c>
+      <c r="E373" t="n">
+        <v>395.38</v>
+      </c>
+      <c r="F373" t="n">
+        <v>393.41</v>
+      </c>
+      <c r="G373" t="n">
+        <v>395.83</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14863,6 +14951,36 @@
       </c>
       <c r="B395" t="n">
         <v>-1.05</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -15030,28 +15148,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.08215584452865624</v>
+        <v>0.09830200445725719</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008793512151498151</v>
+        <v>0.001272044472158229</v>
       </c>
       <c r="M2" t="n">
-        <v>17.17844243488675</v>
+        <v>17.13871062300726</v>
       </c>
       <c r="N2" t="n">
-        <v>412.1384759437123</v>
+        <v>410.917806379925</v>
       </c>
       <c r="O2" t="n">
-        <v>20.30119395364992</v>
+        <v>20.27110767520919</v>
       </c>
       <c r="P2" t="n">
-        <v>429.1359211749862</v>
+        <v>428.9746718541006</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15108,28 +15226,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07800627291854588</v>
+        <v>0.06655152252910899</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003870358612101277</v>
+        <v>0.002857294596705695</v>
       </c>
       <c r="M3" t="n">
-        <v>7.053772176260275</v>
+        <v>7.054419889686818</v>
       </c>
       <c r="N3" t="n">
-        <v>82.91599395058221</v>
+        <v>82.72931251879046</v>
       </c>
       <c r="O3" t="n">
-        <v>9.105821981050486</v>
+        <v>9.095565541448781</v>
       </c>
       <c r="P3" t="n">
-        <v>406.7041807242437</v>
+        <v>406.8202382919099</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15186,28 +15304,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0790341034587288</v>
+        <v>0.07129560698333519</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004180435269413918</v>
+        <v>0.003454136974338051</v>
       </c>
       <c r="M4" t="n">
-        <v>6.584512427311521</v>
+        <v>6.569888240011086</v>
       </c>
       <c r="N4" t="n">
-        <v>77.85566730363793</v>
+        <v>77.53253487562915</v>
       </c>
       <c r="O4" t="n">
-        <v>8.823585852907986</v>
+        <v>8.805256093699327</v>
       </c>
       <c r="P4" t="n">
-        <v>406.2084961872665</v>
+        <v>406.2878547348851</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15264,28 +15382,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001463707010266938</v>
+        <v>-0.003170670112432529</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K5" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>1.336939362439615e-06</v>
+        <v>6.363811285381438e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>6.896269163086989</v>
+        <v>6.889495888147992</v>
       </c>
       <c r="N5" t="n">
-        <v>84.83413635808348</v>
+        <v>84.44850939783386</v>
       </c>
       <c r="O5" t="n">
-        <v>9.210544845886343</v>
+        <v>9.189587009100782</v>
       </c>
       <c r="P5" t="n">
-        <v>404.7195552849817</v>
+        <v>404.7668483690203</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15342,28 +15460,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08935511807025182</v>
+        <v>-0.09681966204363605</v>
       </c>
       <c r="J6" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K6" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004777283624402884</v>
+        <v>0.005694216723561629</v>
       </c>
       <c r="M6" t="n">
-        <v>7.014365958606501</v>
+        <v>6.9946628153935</v>
       </c>
       <c r="N6" t="n">
-        <v>89.13859868662126</v>
+        <v>88.60243937993965</v>
       </c>
       <c r="O6" t="n">
-        <v>9.441323990130901</v>
+        <v>9.412886878101725</v>
       </c>
       <c r="P6" t="n">
-        <v>404.7946461373775</v>
+        <v>404.8698068337389</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15420,28 +15538,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08868317026318141</v>
+        <v>-0.1068437799572836</v>
       </c>
       <c r="J7" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003868768745415085</v>
+        <v>0.005659660410008538</v>
       </c>
       <c r="M7" t="n">
-        <v>7.947065244604048</v>
+        <v>7.960778589917393</v>
       </c>
       <c r="N7" t="n">
-        <v>104.8418626156378</v>
+        <v>104.9570623855917</v>
       </c>
       <c r="O7" t="n">
-        <v>10.239231544195</v>
+        <v>10.2448554106728</v>
       </c>
       <c r="P7" t="n">
-        <v>414.0032081140341</v>
+        <v>414.1896282910343</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15479,7 +15597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29719,6 +29837,128 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-36.76438481510532,175.14465822170655</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-36.76469840952767,175.14544169267643</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-36.764486142077416,175.14616855227547</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-36.76421007495961,175.14690893850678</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-36.76382399334716,175.1476186429458</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-36.76336596182119,175.1482974911711</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-36.76421217409737,175.144660990589</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-36.76462510037363,175.14542770296129</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-36.76445132372165,175.14614965737243</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-36.764143538892164,175.1468554648581</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-36.76380567529882,175.14760097322866</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-36.76332134470102,175.14825223684613</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-36.764741338131685,175.1454498848319</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-36.76455408965999,175.14620542549764</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-36.764253658843174,175.14694396602746</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-36.76386698854748,175.14766011646037</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-36.7634085466415,175.1483406842392</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10979,6 +10979,34 @@
       <c r="H373" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="n">
+        <v>408.8711111111111</v>
+      </c>
+      <c r="D374" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="E374" t="n">
+        <v>402.7633333333333</v>
+      </c>
+      <c r="F374" t="n">
+        <v>408.0633333333333</v>
+      </c>
+      <c r="G374" t="n">
+        <v>412.4011111111111</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10993,7 +11021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14981,6 +15009,16 @@
       </c>
       <c r="B398" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -15151,7 +15189,7 @@
         <v>0.09830200445725719</v>
       </c>
       <c r="J2" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K2" t="n">
         <v>294</v>
@@ -15226,28 +15264,28 @@
         <v>0.0458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06655152252910899</v>
+        <v>0.06676138086270895</v>
       </c>
       <c r="J3" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002857294596705695</v>
+        <v>0.002895031681049098</v>
       </c>
       <c r="M3" t="n">
-        <v>7.054419889686818</v>
+        <v>7.032640801096002</v>
       </c>
       <c r="N3" t="n">
-        <v>82.72931251879046</v>
+        <v>82.46278714442646</v>
       </c>
       <c r="O3" t="n">
-        <v>9.095565541448781</v>
+        <v>9.080902330959542</v>
       </c>
       <c r="P3" t="n">
-        <v>406.8202382919099</v>
+        <v>406.8180995631179</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15304,28 +15342,28 @@
         <v>0.0559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07129560698333519</v>
+        <v>0.06903771579934546</v>
       </c>
       <c r="J4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003454136974338051</v>
+        <v>0.003259173378737823</v>
       </c>
       <c r="M4" t="n">
-        <v>6.569888240011086</v>
+        <v>6.560445772116648</v>
       </c>
       <c r="N4" t="n">
-        <v>77.53253487562915</v>
+        <v>77.33110662362098</v>
       </c>
       <c r="O4" t="n">
-        <v>8.805256093699327</v>
+        <v>8.793810699783171</v>
       </c>
       <c r="P4" t="n">
-        <v>406.2878547348851</v>
+        <v>406.3111355563485</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15382,28 +15420,28 @@
         <v>0.0636</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.003170670112432529</v>
+        <v>-0.004311468308440615</v>
       </c>
       <c r="J5" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>6.363811285381438e-06</v>
+        <v>1.183970240792309e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.889495888147992</v>
+        <v>6.87464324929212</v>
       </c>
       <c r="N5" t="n">
-        <v>84.44850939783386</v>
+        <v>84.20442820013399</v>
       </c>
       <c r="O5" t="n">
-        <v>9.189587009100782</v>
+        <v>9.176297085433426</v>
       </c>
       <c r="P5" t="n">
-        <v>404.7668483690203</v>
+        <v>404.7785536286782</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15460,28 +15498,28 @@
         <v>0.0612</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09681966204363605</v>
+        <v>-0.09343506387798636</v>
       </c>
       <c r="J6" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005694216723561629</v>
+        <v>0.005333058322685491</v>
       </c>
       <c r="M6" t="n">
-        <v>6.9946628153935</v>
+        <v>6.987938918328807</v>
       </c>
       <c r="N6" t="n">
-        <v>88.60243937993965</v>
+        <v>88.43200019064835</v>
       </c>
       <c r="O6" t="n">
-        <v>9.412886878101725</v>
+        <v>9.403829017514534</v>
       </c>
       <c r="P6" t="n">
-        <v>404.8698068337389</v>
+        <v>404.8355317601384</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15538,28 +15576,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1068437799572836</v>
+        <v>-0.1062318527120025</v>
       </c>
       <c r="J7" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005659660410008538</v>
+        <v>0.00563256893797015</v>
       </c>
       <c r="M7" t="n">
-        <v>7.960778589917393</v>
+        <v>7.939159317154766</v>
       </c>
       <c r="N7" t="n">
-        <v>104.9570623855917</v>
+        <v>104.6350477647994</v>
       </c>
       <c r="O7" t="n">
-        <v>10.2448554106728</v>
+        <v>10.22912741952115</v>
       </c>
       <c r="P7" t="n">
-        <v>414.1896282910343</v>
+        <v>414.1833105806909</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15597,7 +15635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29959,6 +29997,44 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-36.76463365046953,175.14542933458958</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-36.76449377689102,175.1461726954681</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-36.764197791768055,175.14689906675332</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-36.76376268007531,175.14755949978087</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-36.76329286171716,175.14822334711704</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0165/nzd0165.xlsx
+++ b/data/nzd0165/nzd0165.xlsx
@@ -15182,9 +15182,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>0.09832498077405873</v>
       </c>
@@ -15255,13 +15261,13 @@
         <v>0.8056699725534319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0445</v>
+        <v>0.0573</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0458</v>
+        <v>0.0639</v>
       </c>
       <c r="I3" t="n">
         <v>0.06677846602203795</v>
@@ -15333,13 +15339,13 @@
         <v>0.6039259877221805</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0496</v>
+        <v>0.0649</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0559</v>
+        <v>0.0733</v>
       </c>
       <c r="I4" t="n">
         <v>0.06902782707849335</v>
@@ -15411,13 +15417,13 @@
         <v>0.4031052747182907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0587</v>
+        <v>0.0687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0636</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>-0.004304376333761636</v>
@@ -15489,13 +15495,13 @@
         <v>0.2017439848296857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.055</v>
+        <v>0.0789</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0612</v>
+        <v>0.0958</v>
       </c>
       <c r="I6" t="n">
         <v>-0.09342468804002682</v>
@@ -15567,13 +15573,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0443</v>
+        <v>0.0615</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0461</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>-0.106212738112384</v>
